--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_115__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_115__Reeval_LHS_Modell_1.2.xlsx
@@ -5879,13 +5879,13 @@
                   <c:v>68.65348815917969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.56117248535156</c:v>
+                  <c:v>64.56118011474609</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63.15147018432617</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.48960876464844</c:v>
+                  <c:v>38.48960494995117</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>73.40694427490234</c:v>
@@ -5903,7 +5903,7 @@
                   <c:v>73.20801544189453</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.97744750976562</c:v>
+                  <c:v>42.97745132446289</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>47.1745719909668</c:v>
@@ -5918,7 +5918,7 @@
                   <c:v>50.91374206542969</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.24485397338867</c:v>
+                  <c:v>49.24485015869141</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>40.27912521362305</c:v>
@@ -5963,7 +5963,7 @@
                   <c:v>67.71311187744141</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41.16953659057617</c:v>
+                  <c:v>41.16954040527344</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>66.69625854492188</c:v>
@@ -5978,13 +5978,13 @@
                   <c:v>42.99666213989258</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44.71793365478516</c:v>
+                  <c:v>44.71793746948242</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>61.33211135864258</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>65.04393768310547</c:v>
+                  <c:v>65.04393005371094</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>70.13440704345703</c:v>
@@ -5993,10 +5993,10 @@
                   <c:v>63.33547210693359</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43.85933685302734</c:v>
+                  <c:v>43.85933303833008</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.45016098022461</c:v>
+                  <c:v>42.45015716552734</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>73.33023071289062</c:v>
@@ -6005,7 +6005,7 @@
                   <c:v>51.28776931762695</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40.51449966430664</c:v>
+                  <c:v>40.51449584960938</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>65.12484741210938</c:v>
@@ -6020,7 +6020,7 @@
                   <c:v>68.99063873291016</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49.15809631347656</c:v>
+                  <c:v>49.1580924987793</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>68.54508972167969</c:v>
@@ -6038,10 +6038,10 @@
                   <c:v>43.30839157104492</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>45.29740142822266</c:v>
+                  <c:v>45.29740524291992</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43.2810173034668</c:v>
+                  <c:v>43.28101348876953</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>45.53108215332031</c:v>
@@ -6053,7 +6053,7 @@
                   <c:v>39.61061859130859</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>53.9340934753418</c:v>
+                  <c:v>53.93410110473633</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>62.37614059448242</c:v>
@@ -6071,7 +6071,7 @@
                   <c:v>61.16863250732422</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66.37384796142578</c:v>
+                  <c:v>66.37384033203125</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>65.80464172363281</c:v>
@@ -6101,13 +6101,13 @@
                   <c:v>66.48370361328125</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43.47870254516602</c:v>
+                  <c:v>43.47870635986328</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>75.06674957275391</c:v>
+                  <c:v>75.06674194335938</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>46.85567092895508</c:v>
+                  <c:v>46.85567474365234</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>41.33849334716797</c:v>
@@ -6134,7 +6134,7 @@
                   <c:v>71.59562683105469</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>39.77283477783203</c:v>
+                  <c:v>39.7728385925293</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>65.42540740966797</c:v>
@@ -6149,16 +6149,16 @@
                   <c:v>42.05427551269531</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>57.41823577880859</c:v>
+                  <c:v>57.41823959350586</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>53.25618362426758</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>65.46199798583984</c:v>
+                  <c:v>65.46200561523438</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>42.33168792724609</c:v>
+                  <c:v>42.33169174194336</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>56.41326141357422</c:v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>64.56117248535156</v>
+        <v>64.56118011474609</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>38.48960876464844</v>
+        <v>38.48960494995117</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>96.3742</v>
       </c>
       <c r="F12">
-        <v>42.97744750976562</v>
+        <v>42.97745132446289</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>49.24485397338867</v>
+        <v>49.24485015869141</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>88.6494</v>
       </c>
       <c r="F32">
-        <v>41.16953659057617</v>
+        <v>41.16954040527344</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>44.71793365478516</v>
+        <v>44.71793746948242</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>95.8798</v>
       </c>
       <c r="F39">
-        <v>65.04393768310547</v>
+        <v>65.04393005371094</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.2435</v>
       </c>
       <c r="F42">
-        <v>43.85933685302734</v>
+        <v>43.85933303833008</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>88.684</v>
       </c>
       <c r="F43">
-        <v>42.45016098022461</v>
+        <v>42.45015716552734</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>96.6305</v>
       </c>
       <c r="F46">
-        <v>40.51449966430664</v>
+        <v>40.51449584960938</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>98.24630000000001</v>
       </c>
       <c r="F51">
-        <v>49.15809631347656</v>
+        <v>49.1580924987793</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>67.7923</v>
       </c>
       <c r="F57">
-        <v>45.29740142822266</v>
+        <v>45.29740524291992</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>43.2810173034668</v>
+        <v>43.28101348876953</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>93.1279</v>
       </c>
       <c r="F62">
-        <v>53.9340934753418</v>
+        <v>53.93410110473633</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>66.37384796142578</v>
+        <v>66.37384033203125</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>71.7201</v>
       </c>
       <c r="F78">
-        <v>43.47870254516602</v>
+        <v>43.47870635986328</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>97.88209999999999</v>
       </c>
       <c r="F79">
-        <v>75.06674957275391</v>
+        <v>75.06674194335938</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>91.229</v>
       </c>
       <c r="F80">
-        <v>46.85567092895508</v>
+        <v>46.85567474365234</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>94.4674</v>
       </c>
       <c r="F89">
-        <v>39.77283477783203</v>
+        <v>39.7728385925293</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>92.3792</v>
       </c>
       <c r="F94">
-        <v>57.41823577880859</v>
+        <v>57.41823959350586</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>40.7372</v>
       </c>
       <c r="F96">
-        <v>65.46199798583984</v>
+        <v>65.46200561523438</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>42.33168792724609</v>
+        <v>42.33169174194336</v>
       </c>
     </row>
     <row r="98" spans="1:6">
